--- a/parableDoubles.xlsx
+++ b/parableDoubles.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="newDoubles"/>
   </sheets>
   <definedNames>
-    <definedName name="newDoubles">'newDoubles'!$A$1:$C$21</definedName>
+    <definedName name="newDoubles">'newDoubles'!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -371,338 +371,355 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>81</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-8</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>49</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>36</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>49</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
+      <c r="B22" s="0" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C21" s="0" t="inlineStr">
+      <c r="C22" s="0" t="inlineStr">
         <is>
           <t>100</t>
         </is>
